--- a/LCD/tables/eol_generation.xlsx
+++ b/LCD/tables/eol_generation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studium\TUM\BA\CE\data_handling\matlab_cad\CAD_Import\LCD\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A781AD-DE5A-47D4-AF30-86848AF4B8EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A240DE1E-EA6D-436F-9A4E-30C35B3F5E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="146">
   <si>
     <t>ecoinvent</t>
   </si>
@@ -450,7 +450,19 @@
     <t>mass</t>
   </si>
   <si>
-    <t>0-mass</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, open dump, dry infiltration class (100mm)</t>
+  </si>
+  <si>
+    <t>waste polyethylene</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, municipal incineration</t>
+  </si>
+  <si>
+    <t>mass*-1</t>
   </si>
 </sst>
 </file>
@@ -537,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -557,6 +569,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -839,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DW92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J24"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CA28" sqref="CA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,8 +1297,8 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>141</v>
+      <c r="D2" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -1302,8 +1315,8 @@
       <c r="I2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>141</v>
+      <c r="J2" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
@@ -1389,11 +1402,11 @@
       <c r="AL2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>140</v>
+      <c r="AM2" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>0</v>
@@ -1407,11 +1420,11 @@
       <c r="AR2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>140</v>
+      <c r="AS2" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>0</v>
@@ -1497,8 +1510,8 @@
       <c r="BV2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW2" s="12" t="s">
-        <v>1</v>
+      <c r="BW2" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX2" s="1" t="s">
         <v>140</v>
@@ -1667,8 +1680,8 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>141</v>
+      <c r="D3" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1685,8 +1698,8 @@
       <c r="I3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>141</v>
+      <c r="J3" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>0</v>
@@ -1772,11 +1785,11 @@
       <c r="AL3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>140</v>
+      <c r="AM3" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>0</v>
@@ -1790,11 +1803,11 @@
       <c r="AR3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>140</v>
+      <c r="AS3" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT3" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>0</v>
@@ -1880,8 +1893,8 @@
       <c r="BV3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW3" s="12" t="s">
-        <v>1</v>
+      <c r="BW3" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX3" s="1" t="s">
         <v>140</v>
@@ -2050,8 +2063,8 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>141</v>
+      <c r="D4" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -2068,8 +2081,8 @@
       <c r="I4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>141</v>
+      <c r="J4" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>0</v>
@@ -2155,11 +2168,11 @@
       <c r="AL4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>140</v>
+      <c r="AM4" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>0</v>
@@ -2173,11 +2186,11 @@
       <c r="AR4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>140</v>
+      <c r="AS4" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT4" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>0</v>
@@ -2263,8 +2276,8 @@
       <c r="BV4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW4" s="12" t="s">
-        <v>1</v>
+      <c r="BW4" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX4" s="1" t="s">
         <v>140</v>
@@ -2433,8 +2446,8 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>141</v>
+      <c r="D5" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -2451,8 +2464,8 @@
       <c r="I5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>141</v>
+      <c r="J5" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>0</v>
@@ -2538,11 +2551,11 @@
       <c r="AL5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>140</v>
+      <c r="AM5" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN5" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>0</v>
@@ -2556,11 +2569,11 @@
       <c r="AR5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>140</v>
+      <c r="AS5" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT5" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>0</v>
@@ -2646,8 +2659,8 @@
       <c r="BV5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW5" s="12" t="s">
-        <v>1</v>
+      <c r="BW5" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX5" s="1" t="s">
         <v>140</v>
@@ -2816,8 +2829,8 @@
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>141</v>
+      <c r="D6" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -2834,8 +2847,8 @@
       <c r="I6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>141</v>
+      <c r="J6" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>0</v>
@@ -2921,11 +2934,11 @@
       <c r="AL6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>140</v>
+      <c r="AM6" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN6" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>0</v>
@@ -2939,11 +2952,11 @@
       <c r="AR6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>140</v>
+      <c r="AS6" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT6" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>0</v>
@@ -3029,8 +3042,8 @@
       <c r="BV6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW6" s="12" t="s">
-        <v>1</v>
+      <c r="BW6" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX6" s="1" t="s">
         <v>140</v>
@@ -3199,8 +3212,8 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>141</v>
+      <c r="D7" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
@@ -3217,8 +3230,8 @@
       <c r="I7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>141</v>
+      <c r="J7" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>0</v>
@@ -3304,11 +3317,11 @@
       <c r="AL7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>140</v>
+      <c r="AM7" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN7" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>0</v>
@@ -3322,11 +3335,11 @@
       <c r="AR7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>140</v>
+      <c r="AS7" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT7" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU7" s="1" t="s">
         <v>0</v>
@@ -3412,8 +3425,8 @@
       <c r="BV7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW7" s="12" t="s">
-        <v>1</v>
+      <c r="BW7" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX7" s="1" t="s">
         <v>140</v>
@@ -3582,8 +3595,8 @@
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>141</v>
+      <c r="D8" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -3600,8 +3613,8 @@
       <c r="I8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>141</v>
+      <c r="J8" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>0</v>
@@ -3687,11 +3700,11 @@
       <c r="AL8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>140</v>
+      <c r="AM8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN8" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>0</v>
@@ -3705,11 +3718,11 @@
       <c r="AR8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>140</v>
+      <c r="AS8" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT8" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU8" s="1" t="s">
         <v>0</v>
@@ -3795,8 +3808,8 @@
       <c r="BV8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW8" s="12" t="s">
-        <v>1</v>
+      <c r="BW8" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX8" s="1" t="s">
         <v>140</v>
@@ -3965,8 +3978,8 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>141</v>
+      <c r="D9" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>0</v>
@@ -3983,8 +3996,8 @@
       <c r="I9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>141</v>
+      <c r="J9" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>0</v>
@@ -4070,11 +4083,11 @@
       <c r="AL9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>140</v>
+      <c r="AM9" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN9" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>0</v>
@@ -4088,11 +4101,11 @@
       <c r="AR9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>140</v>
+      <c r="AS9" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT9" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU9" s="1" t="s">
         <v>0</v>
@@ -4178,8 +4191,8 @@
       <c r="BV9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW9" s="12" t="s">
-        <v>1</v>
+      <c r="BW9" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX9" s="1" t="s">
         <v>140</v>
@@ -4348,8 +4361,8 @@
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>141</v>
+      <c r="D10" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
@@ -4366,8 +4379,8 @@
       <c r="I10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>141</v>
+      <c r="J10" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>0</v>
@@ -4453,11 +4466,11 @@
       <c r="AL10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>140</v>
+      <c r="AM10" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN10" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO10" s="1" t="s">
         <v>0</v>
@@ -4471,11 +4484,11 @@
       <c r="AR10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>140</v>
+      <c r="AS10" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT10" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU10" s="1" t="s">
         <v>0</v>
@@ -4561,8 +4574,8 @@
       <c r="BV10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW10" s="12" t="s">
-        <v>1</v>
+      <c r="BW10" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX10" s="1" t="s">
         <v>140</v>
@@ -4731,8 +4744,8 @@
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>141</v>
+      <c r="D11" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>0</v>
@@ -4749,8 +4762,8 @@
       <c r="I11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>141</v>
+      <c r="J11" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>0</v>
@@ -4836,11 +4849,11 @@
       <c r="AL11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>140</v>
+      <c r="AM11" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN11" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>0</v>
@@ -4854,11 +4867,11 @@
       <c r="AR11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>140</v>
+      <c r="AS11" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT11" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>0</v>
@@ -4944,8 +4957,8 @@
       <c r="BV11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW11" s="12" t="s">
-        <v>1</v>
+      <c r="BW11" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX11" s="1" t="s">
         <v>140</v>
@@ -5114,8 +5127,8 @@
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>141</v>
+      <c r="D12" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>0</v>
@@ -5132,8 +5145,8 @@
       <c r="I12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>141</v>
+      <c r="J12" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>0</v>
@@ -5219,11 +5232,11 @@
       <c r="AL12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>140</v>
+      <c r="AM12" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN12" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>0</v>
@@ -5237,11 +5250,11 @@
       <c r="AR12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>140</v>
+      <c r="AS12" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT12" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU12" s="1" t="s">
         <v>0</v>
@@ -5327,8 +5340,8 @@
       <c r="BV12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW12" s="12" t="s">
-        <v>1</v>
+      <c r="BW12" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX12" s="1" t="s">
         <v>140</v>
@@ -5497,8 +5510,8 @@
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>141</v>
+      <c r="D13" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>0</v>
@@ -5515,8 +5528,8 @@
       <c r="I13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>141</v>
+      <c r="J13" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>0</v>
@@ -5602,11 +5615,11 @@
       <c r="AL13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>140</v>
+      <c r="AM13" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN13" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO13" s="1" t="s">
         <v>0</v>
@@ -5620,11 +5633,11 @@
       <c r="AR13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>140</v>
+      <c r="AS13" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT13" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU13" s="1" t="s">
         <v>0</v>
@@ -5710,8 +5723,8 @@
       <c r="BV13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW13" s="12" t="s">
-        <v>1</v>
+      <c r="BW13" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX13" s="1" t="s">
         <v>140</v>
@@ -5880,8 +5893,8 @@
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>141</v>
+      <c r="D14" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>0</v>
@@ -5898,8 +5911,8 @@
       <c r="I14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>141</v>
+      <c r="J14" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>0</v>
@@ -5985,11 +5998,11 @@
       <c r="AL14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>140</v>
+      <c r="AM14" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN14" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO14" s="1" t="s">
         <v>0</v>
@@ -6003,11 +6016,11 @@
       <c r="AR14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>140</v>
+      <c r="AS14" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT14" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU14" s="1" t="s">
         <v>0</v>
@@ -6093,8 +6106,8 @@
       <c r="BV14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW14" s="12" t="s">
-        <v>1</v>
+      <c r="BW14" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX14" s="1" t="s">
         <v>140</v>
@@ -6263,8 +6276,8 @@
       <c r="C15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>141</v>
+      <c r="D15" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>0</v>
@@ -6281,8 +6294,8 @@
       <c r="I15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>141</v>
+      <c r="J15" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>0</v>
@@ -6368,11 +6381,11 @@
       <c r="AL15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>140</v>
+      <c r="AM15" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN15" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO15" s="1" t="s">
         <v>0</v>
@@ -6386,11 +6399,11 @@
       <c r="AR15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>140</v>
+      <c r="AS15" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT15" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU15" s="1" t="s">
         <v>0</v>
@@ -6476,8 +6489,8 @@
       <c r="BV15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW15" s="12" t="s">
-        <v>1</v>
+      <c r="BW15" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX15" s="1" t="s">
         <v>140</v>
@@ -6646,8 +6659,8 @@
       <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>141</v>
+      <c r="D16" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>0</v>
@@ -6664,8 +6677,8 @@
       <c r="I16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>141</v>
+      <c r="J16" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>0</v>
@@ -6751,11 +6764,11 @@
       <c r="AL16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="1" t="s">
-        <v>140</v>
+      <c r="AM16" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN16" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO16" s="1" t="s">
         <v>0</v>
@@ -6769,11 +6782,11 @@
       <c r="AR16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>140</v>
+      <c r="AS16" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT16" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU16" s="1" t="s">
         <v>0</v>
@@ -6859,8 +6872,8 @@
       <c r="BV16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW16" s="12" t="s">
-        <v>1</v>
+      <c r="BW16" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX16" s="1" t="s">
         <v>140</v>
@@ -7029,8 +7042,8 @@
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>141</v>
+      <c r="D17" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>0</v>
@@ -7047,8 +7060,8 @@
       <c r="I17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>141</v>
+      <c r="J17" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>0</v>
@@ -7134,11 +7147,11 @@
       <c r="AL17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>140</v>
+      <c r="AM17" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN17" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO17" s="1" t="s">
         <v>0</v>
@@ -7152,11 +7165,11 @@
       <c r="AR17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>140</v>
+      <c r="AS17" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT17" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU17" s="1" t="s">
         <v>0</v>
@@ -7242,8 +7255,8 @@
       <c r="BV17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW17" s="12" t="s">
-        <v>1</v>
+      <c r="BW17" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX17" s="1" t="s">
         <v>140</v>
@@ -7412,8 +7425,8 @@
       <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>141</v>
+      <c r="D18" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>0</v>
@@ -7430,8 +7443,8 @@
       <c r="I18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>141</v>
+      <c r="J18" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>0</v>
@@ -7517,11 +7530,11 @@
       <c r="AL18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>140</v>
+      <c r="AM18" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN18" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO18" s="1" t="s">
         <v>0</v>
@@ -7535,11 +7548,11 @@
       <c r="AR18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>140</v>
+      <c r="AS18" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT18" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU18" s="1" t="s">
         <v>0</v>
@@ -7625,8 +7638,8 @@
       <c r="BV18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW18" s="12" t="s">
-        <v>1</v>
+      <c r="BW18" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX18" s="1" t="s">
         <v>140</v>
@@ -7795,8 +7808,8 @@
       <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>141</v>
+      <c r="D19" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>0</v>
@@ -7813,8 +7826,8 @@
       <c r="I19" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>141</v>
+      <c r="J19" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>0</v>
@@ -7900,11 +7913,11 @@
       <c r="AL19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="1" t="s">
-        <v>140</v>
+      <c r="AM19" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN19" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO19" s="1" t="s">
         <v>0</v>
@@ -7918,11 +7931,11 @@
       <c r="AR19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>140</v>
+      <c r="AS19" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT19" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU19" s="1" t="s">
         <v>0</v>
@@ -8008,8 +8021,8 @@
       <c r="BV19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW19" s="12" t="s">
-        <v>1</v>
+      <c r="BW19" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX19" s="1" t="s">
         <v>140</v>
@@ -8178,8 +8191,8 @@
       <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>141</v>
+      <c r="D20" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>0</v>
@@ -8196,8 +8209,8 @@
       <c r="I20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>141</v>
+      <c r="J20" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>0</v>
@@ -8283,11 +8296,11 @@
       <c r="AL20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="1" t="s">
-        <v>140</v>
+      <c r="AM20" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN20" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO20" s="1" t="s">
         <v>0</v>
@@ -8301,11 +8314,11 @@
       <c r="AR20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>140</v>
+      <c r="AS20" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT20" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU20" s="1" t="s">
         <v>0</v>
@@ -8391,8 +8404,8 @@
       <c r="BV20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW20" s="12" t="s">
-        <v>1</v>
+      <c r="BW20" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX20" s="1" t="s">
         <v>140</v>
@@ -8561,8 +8574,8 @@
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>141</v>
+      <c r="D21" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>0</v>
@@ -8579,8 +8592,8 @@
       <c r="I21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>141</v>
+      <c r="J21" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>0</v>
@@ -8666,11 +8679,11 @@
       <c r="AL21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="1" t="s">
-        <v>140</v>
+      <c r="AM21" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN21" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO21" s="1" t="s">
         <v>0</v>
@@ -8684,11 +8697,11 @@
       <c r="AR21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>140</v>
+      <c r="AS21" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT21" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU21" s="1" t="s">
         <v>0</v>
@@ -8774,8 +8787,8 @@
       <c r="BV21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW21" s="12" t="s">
-        <v>1</v>
+      <c r="BW21" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX21" s="1" t="s">
         <v>140</v>
@@ -8944,8 +8957,8 @@
       <c r="C22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>141</v>
+      <c r="D22" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>0</v>
@@ -8962,8 +8975,8 @@
       <c r="I22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>141</v>
+      <c r="J22" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
@@ -9049,11 +9062,11 @@
       <c r="AL22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="1" t="s">
-        <v>140</v>
+      <c r="AM22" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN22" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO22" s="1" t="s">
         <v>0</v>
@@ -9067,11 +9080,11 @@
       <c r="AR22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT22" s="1" t="s">
-        <v>140</v>
+      <c r="AS22" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT22" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU22" s="1" t="s">
         <v>0</v>
@@ -9157,8 +9170,8 @@
       <c r="BV22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW22" s="12" t="s">
-        <v>1</v>
+      <c r="BW22" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX22" s="1" t="s">
         <v>140</v>
@@ -9327,8 +9340,8 @@
       <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>141</v>
+      <c r="D23" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>0</v>
@@ -9345,8 +9358,8 @@
       <c r="I23" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>141</v>
+      <c r="J23" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>0</v>
@@ -9432,11 +9445,11 @@
       <c r="AL23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="1" t="s">
-        <v>140</v>
+      <c r="AM23" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN23" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO23" s="1" t="s">
         <v>0</v>
@@ -9450,11 +9463,11 @@
       <c r="AR23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>140</v>
+      <c r="AS23" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT23" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU23" s="1" t="s">
         <v>0</v>
@@ -9540,8 +9553,8 @@
       <c r="BV23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW23" s="12" t="s">
-        <v>1</v>
+      <c r="BW23" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX23" s="1" t="s">
         <v>140</v>
@@ -9710,8 +9723,8 @@
       <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>141</v>
+      <c r="D24" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>0</v>
@@ -9728,8 +9741,8 @@
       <c r="I24" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>141</v>
+      <c r="J24" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>0</v>
@@ -9815,11 +9828,11 @@
       <c r="AL24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM24" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="1" t="s">
-        <v>140</v>
+      <c r="AM24" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN24" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO24" s="1" t="s">
         <v>0</v>
@@ -9833,11 +9846,11 @@
       <c r="AR24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS24" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT24" s="1" t="s">
-        <v>140</v>
+      <c r="AS24" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT24" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AU24" s="1" t="s">
         <v>0</v>
@@ -9923,8 +9936,8 @@
       <c r="BV24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW24" s="12" t="s">
-        <v>1</v>
+      <c r="BW24" s="19">
+        <v>0.1</v>
       </c>
       <c r="BX24" s="1" t="s">
         <v>140</v>
@@ -10084,21 +10097,387 @@
       </c>
     </row>
     <row r="25" spans="1:127" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AJ25" s="15"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AP25"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="7"/>
-      <c r="AX25" s="1"/>
+      <c r="A25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" t="s">
+        <v>97</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>97</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T25" t="s">
+        <v>99</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>100</v>
+      </c>
+      <c r="W25" t="s">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM25" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="AN25" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS25" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT25" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="BS25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BW25" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="BX25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC25">
+        <v>1</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CH25" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI25">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="s">
+        <v>100</v>
+      </c>
+      <c r="CK25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL25" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>101</v>
+      </c>
+      <c r="CO25">
+        <v>0</v>
+      </c>
+      <c r="CP25" t="s">
+        <v>100</v>
+      </c>
+      <c r="CQ25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="s">
+        <v>102</v>
+      </c>
+      <c r="CS25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CT25" t="s">
+        <v>103</v>
+      </c>
+      <c r="CU25" s="14">
+        <v>0</v>
+      </c>
+      <c r="CV25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="CW25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX25" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="CZ25" t="s">
+        <v>97</v>
+      </c>
+      <c r="DA25">
+        <v>1</v>
+      </c>
+      <c r="DB25" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC25" t="s">
+        <v>0</v>
+      </c>
+      <c r="DD25" t="s">
+        <v>97</v>
+      </c>
+      <c r="DE25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="DF25" t="s">
+        <v>99</v>
+      </c>
+      <c r="DG25">
+        <v>0</v>
+      </c>
+      <c r="DH25" t="s">
+        <v>100</v>
+      </c>
+      <c r="DI25" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ25" t="s">
+        <v>99</v>
+      </c>
+      <c r="DK25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="DL25" t="s">
+        <v>101</v>
+      </c>
+      <c r="DM25">
+        <v>0</v>
+      </c>
+      <c r="DN25" t="s">
+        <v>100</v>
+      </c>
+      <c r="DO25" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP25" t="s">
+        <v>102</v>
+      </c>
+      <c r="DQ25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="DR25" t="s">
+        <v>103</v>
+      </c>
+      <c r="DS25" s="14">
+        <v>0</v>
+      </c>
+      <c r="DT25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="DU25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="DV25" t="s">
+        <v>103</v>
+      </c>
+      <c r="DW25" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="26" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
